--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,78 +423,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6753636464842347</v>
+        <v>1.092624575024518</v>
       </c>
       <c r="B1" t="n">
-        <v>588.74</v>
+        <v>2.247893247927412</v>
       </c>
       <c r="C1" t="n">
-        <v>9.907655508246464</v>
+        <v>4.629522960673135</v>
       </c>
       <c r="D1" t="n">
-        <v>9.271332306507508</v>
+        <v>13.53845913816321</v>
       </c>
       <c r="E1" t="n">
-        <v>8.744991204786457</v>
+        <v>8.287047554019958</v>
       </c>
       <c r="F1" t="n">
-        <v>17.22788110224641</v>
+        <v>9.675101236149892</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2721589464460366</v>
+        <v>5.90844831664791</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4301049952377978</v>
+        <v>1.092624575024518</v>
       </c>
       <c r="I1" t="n">
-        <v>1.785665360654838e-05</v>
+        <v>2.247893247927412</v>
       </c>
       <c r="J1" t="n">
-        <v>1.90822167316331e-05</v>
+        <v>9.232953217757556</v>
       </c>
       <c r="K1" t="n">
-        <v>2.023073189220986e-05</v>
+        <v>1.043489792155616</v>
       </c>
       <c r="L1" t="n">
-        <v>1.026925896538137e-05</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5073804966460268</v>
-      </c>
-      <c r="B2" t="n">
-        <v>557.2966666666666</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.903403807566193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.188317125971691</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.673194387701386</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.86464551643925</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3515317250332989</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4664496608926964</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.760635693615032e-05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.897658297252134e-05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.010364976554516e-05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.033895803791878e-05</v>
+        <v>15.15151515151515</v>
+      </c>
+      <c r="M1" t="n">
+        <v>15.15151515151515</v>
+      </c>
+      <c r="N1" t="n">
+        <v>10.84966069541232</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -423,46 +423,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.092624575024518</v>
+        <v>0.9199033333333333</v>
       </c>
       <c r="B1" t="n">
-        <v>2.247893247927412</v>
+        <v>1.112133428571429</v>
       </c>
       <c r="C1" t="n">
-        <v>4.629522960673135</v>
+        <v>0.8567330513986012</v>
       </c>
       <c r="D1" t="n">
-        <v>13.53845913816321</v>
+        <v>3.80931791472367</v>
       </c>
       <c r="E1" t="n">
-        <v>8.287047554019958</v>
+        <v>1.028876634271656</v>
       </c>
       <c r="F1" t="n">
-        <v>9.675101236149892</v>
+        <v>1.278864657546501</v>
       </c>
       <c r="G1" t="n">
-        <v>5.90844831664791</v>
+        <v>1.030183098571428</v>
       </c>
       <c r="H1" t="n">
-        <v>1.092624575024518</v>
+        <v>0.9199033333333333</v>
       </c>
       <c r="I1" t="n">
-        <v>2.247893247927412</v>
+        <v>1.112133428571429</v>
       </c>
       <c r="J1" t="n">
-        <v>9.232953217757556</v>
+        <v>1.659190909090909</v>
       </c>
       <c r="K1" t="n">
-        <v>1.043489792155616</v>
+        <v>16.1246286873188</v>
       </c>
       <c r="L1" t="n">
-        <v>15.15151515151515</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="M1" t="n">
-        <v>15.15151515151515</v>
+        <v>2.421307506053269</v>
       </c>
       <c r="N1" t="n">
-        <v>10.84966069541232</v>
+        <v>1.821518499999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -423,46 +423,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9199033333333333</v>
+        <v>0.4930603888888889</v>
       </c>
       <c r="B1" t="n">
-        <v>1.112133428571429</v>
+        <v>0.5327449126984127</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8567330513986012</v>
+        <v>0.6027797777777778</v>
       </c>
       <c r="D1" t="n">
-        <v>3.80931791472367</v>
+        <v>12.23874226931268</v>
       </c>
       <c r="E1" t="n">
-        <v>1.028876634271656</v>
+        <v>5.062836328784168</v>
       </c>
       <c r="F1" t="n">
-        <v>1.278864657546501</v>
+        <v>5.441591276812847</v>
       </c>
       <c r="G1" t="n">
-        <v>1.030183098571428</v>
+        <v>2.964505839153439</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9199033333333333</v>
+        <v>0.71139</v>
       </c>
       <c r="I1" t="n">
-        <v>1.112133428571429</v>
+        <v>0.8952571428571429</v>
       </c>
       <c r="J1" t="n">
-        <v>1.659190909090909</v>
+        <v>1.2506</v>
       </c>
       <c r="K1" t="n">
-        <v>16.1246286873188</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L1" t="n">
-        <v>3.389830508474576</v>
+        <v>14.92537313432836</v>
       </c>
       <c r="M1" t="n">
-        <v>2.421307506053269</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="N1" t="n">
-        <v>1.821518499999999</v>
+        <v>5.964457079365083</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.4930603888888889</v>
+        <v>0.4476488000000001</v>
       </c>
       <c r="B1" t="n">
-        <v>0.5327449126984127</v>
+        <v>0.5094288571428571</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6027797777777778</v>
+        <v>0.6012333333333333</v>
       </c>
       <c r="D1" t="n">
-        <v>12.23874226931268</v>
+        <v>12.9730272657176</v>
       </c>
       <c r="E1" t="n">
-        <v>5.062836328784168</v>
+        <v>5.322625710222713</v>
       </c>
       <c r="F1" t="n">
-        <v>5.441591276812847</v>
+        <v>5.762387040716822</v>
       </c>
       <c r="G1" t="n">
-        <v>2.964505839153439</v>
+        <v>3.131449876455025</v>
       </c>
       <c r="H1" t="n">
-        <v>0.71139</v>
+        <v>0.6601285714285714</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8952571428571429</v>
+        <v>0.6838285714285715</v>
       </c>
       <c r="J1" t="n">
-        <v>1.2506</v>
+        <v>1.275</v>
       </c>
       <c r="K1" t="n">
         <v>15.15151515151515</v>
@@ -459,10 +459,10 @@
         <v>14.92537313432836</v>
       </c>
       <c r="M1" t="n">
-        <v>8.196721311475409</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="N1" t="n">
-        <v>5.964457079365083</v>
+        <v>6.344621746031749</v>
       </c>
     </row>
   </sheetData>
